--- a/Xports/UD_French-Rhapsodie/VERB-direct-obj.xlsx
+++ b/Xports/UD_French-Rhapsodie/VERB-direct-obj.xlsx
@@ -35584,7 +35584,7 @@
         <v>5227</v>
       </c>
       <c r="O406">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="407" spans="1:15">
@@ -49305,7 +49305,7 @@
         <v>5227</v>
       </c>
       <c r="O698">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="699" spans="1:15">
@@ -53626,7 +53626,7 @@
         <v>5227</v>
       </c>
       <c r="O790">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="791" spans="1:15">
@@ -61005,7 +61005,7 @@
         <v>5227</v>
       </c>
       <c r="O947">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="948" spans="1:15">
@@ -61052,7 +61052,7 @@
         <v>5227</v>
       </c>
       <c r="O948">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="949" spans="1:15">
@@ -61069,7 +61069,7 @@
         <v>4291</v>
       </c>
       <c r="E949" t="s">
-        <v>4971</v>
+        <v>4978</v>
       </c>
       <c r="F949" t="s">
         <v>3182</v>
@@ -61087,10 +61087,10 @@
         <v>5237</v>
       </c>
       <c r="K949" t="s">
-        <v>5271</v>
+        <v>4971</v>
       </c>
       <c r="L949" t="s">
-        <v>5283</v>
+        <v>5279</v>
       </c>
       <c r="M949" t="s">
         <v>5227</v>
@@ -61099,7 +61099,7 @@
         <v>5227</v>
       </c>
       <c r="O949">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="950" spans="1:15">
@@ -61116,7 +61116,7 @@
         <v>4292</v>
       </c>
       <c r="E950" t="s">
-        <v>4971</v>
+        <v>4978</v>
       </c>
       <c r="F950" t="s">
         <v>3182</v>
@@ -61134,10 +61134,10 @@
         <v>5237</v>
       </c>
       <c r="K950" t="s">
-        <v>5271</v>
+        <v>4971</v>
       </c>
       <c r="L950" t="s">
-        <v>5283</v>
+        <v>5279</v>
       </c>
       <c r="M950" t="s">
         <v>5227</v>
@@ -66551,7 +66551,7 @@
         <v>5227</v>
       </c>
       <c r="O1065">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1066" spans="1:15">
@@ -75489,7 +75489,7 @@
         <v>4582</v>
       </c>
       <c r="E1256" t="s">
-        <v>4973</v>
+        <v>4978</v>
       </c>
       <c r="F1256" t="s">
         <v>2717</v>
@@ -75498,7 +75498,7 @@
         <v>2708</v>
       </c>
       <c r="H1256" t="s">
-        <v>5224</v>
+        <v>5225</v>
       </c>
       <c r="I1256" t="s">
         <v>5227</v>
@@ -75507,10 +75507,10 @@
         <v>5237</v>
       </c>
       <c r="K1256" t="s">
-        <v>5271</v>
+        <v>4957</v>
       </c>
       <c r="L1256" t="s">
-        <v>5283</v>
+        <v>5292</v>
       </c>
       <c r="M1256" t="s">
         <v>5227</v>
@@ -76694,7 +76694,7 @@
         <v>5227</v>
       </c>
       <c r="O1281">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1282" spans="1:15">
@@ -80216,7 +80216,7 @@
         <v>5358</v>
       </c>
       <c r="O1356">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1357" spans="1:15">
@@ -82660,7 +82660,7 @@
         <v>5227</v>
       </c>
       <c r="O1408">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1409" spans="1:15">
@@ -83647,7 +83647,7 @@
         <v>5297</v>
       </c>
       <c r="O1429">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1430" spans="1:15">
@@ -88770,7 +88770,7 @@
         <v>5227</v>
       </c>
       <c r="O1538">
-        <v>9</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1539" spans="1:15">
@@ -92812,7 +92812,7 @@
         <v>5299</v>
       </c>
       <c r="O1624">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1625" spans="1:15">
